--- a/Daten_Fehler.xlsx
+++ b/Daten_Fehler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\le\SynologyDrive\Gymnasium\Maturarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A42D204-9901-4563-90B5-D13389E76E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F3E83-B8B2-43EC-8EEC-5BF6BDB6DA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19450" yWindow="930" windowWidth="19050" windowHeight="15460" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
   <si>
     <t>RGB</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>mit weiss-Filter</t>
   </si>
+  <si>
+    <t>dw</t>
+  </si>
 </sst>
 </file>
 
@@ -161,10 +164,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -180,6 +183,2422 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Schnitt Farben</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$K$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$58:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$K$58:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$58:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$58:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$58:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$58:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$58:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$58:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$O$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$J$58:$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$58:$O$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="628572176"/>
+        <c:axId val="618511048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="628572176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618511048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618511048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Fehlerzahl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628572176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Fehler Schnitt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A292-4CD4-B8F7-293241FD247A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A292-4CD4-B8F7-293241FD247A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A292-4CD4-B8F7-293241FD247A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A292-4CD4-B8F7-293241FD247A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A292-4CD4-B8F7-293241FD247A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="626733240"/>
+        <c:axId val="626735864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="626733240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="626735864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626735864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Fehler</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626733240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEC8320-5162-45DF-88C0-951D7C21A97B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170C75BB-1650-4A74-B523-5C0FCEC4B49C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEFB4C4-E56D-49A1-B99A-2120733C73FE}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Y69" sqref="Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,46 +2910,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -1703,123 +4122,123 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f>B13/10</f>
         <v>5.4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:E14" si="19">C13/10</f>
         <v>5.3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="19"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="19"/>
         <v>3.4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" ref="F14" si="20">F13/10</f>
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" ref="G14:H14" si="21">G13/10</f>
         <v>4.3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="21"/>
         <v>6.1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" ref="I14" si="22">I13/10</f>
         <v>6.9</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f t="shared" ref="J14:K14" si="23">J13/10</f>
         <v>7.2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="23"/>
         <v>6.6</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" ref="L14" si="24">L13/10</f>
         <v>6.3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <f t="shared" ref="M14:N14" si="25">M13/10</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f t="shared" si="25"/>
         <v>5.4</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <f t="shared" ref="O14" si="26">O13/10</f>
         <v>5.7</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" ref="P14:Q14" si="27">P13/10</f>
         <v>6.3</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <f t="shared" si="27"/>
         <v>5.5</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <f t="shared" ref="R14" si="28">R13/10</f>
         <v>5.2</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" ref="S14:T14" si="29">S13/10</f>
         <v>3.6</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <f t="shared" si="29"/>
         <v>5.2</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <f t="shared" ref="U14" si="30">U13/10</f>
         <v>5.9</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <f t="shared" ref="V14:W14" si="31">V13/10</f>
         <v>6.3</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <f t="shared" si="31"/>
         <v>4.8</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <f t="shared" ref="X14" si="32">X13/10</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="1">
         <f t="shared" ref="Y14:Z14" si="33">Y13/10</f>
         <v>3.6</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="1">
         <f t="shared" si="33"/>
         <v>4.3</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="1">
         <f t="shared" ref="AA14" si="34">AA13/10</f>
         <v>3.9</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14" s="1">
         <f t="shared" ref="AB14:AC14" si="35">AB13/10</f>
         <v>4.7</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="1">
         <f t="shared" si="35"/>
         <v>2.8</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14" s="1">
         <f t="shared" ref="AD14" si="36">AD13/10</f>
         <v>0.8</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="1">
         <f t="shared" ref="AE14" si="37">AE13/10</f>
         <v>0.1</v>
       </c>
@@ -1828,167 +4247,167 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f>SUM(B13:G13)</f>
         <v>275</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <f>SUM(H13:M13)</f>
         <v>375</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
         <f t="shared" ref="N15" si="38">SUM(N13:S13)</f>
         <v>317</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
         <f t="shared" ref="T15" si="39">SUM(T13:Y13)</f>
         <v>307</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
         <f t="shared" ref="Z15" si="40">SUM(Z13:AE13)</f>
         <v>166</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f>B15/10</f>
         <v>27.5</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <f t="shared" ref="H16" si="41">H15/10</f>
         <v>37.5</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
         <f t="shared" ref="N16" si="42">N15/10</f>
         <v>31.7</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
         <f t="shared" ref="T16" si="43">T15/10</f>
         <v>30.7</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
         <f t="shared" ref="Z16" si="44">Z15/10</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -2061,8 +4480,14 @@
       <c r="Y23" t="s">
         <v>22</v>
       </c>
+      <c r="AB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2138,8 +4563,14 @@
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>37.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2215,8 +4646,14 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="AB25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>31.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2292,8 +4729,14 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="AB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>30.7</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2369,8 +4812,14 @@
       <c r="Y27">
         <v>1</v>
       </c>
+      <c r="AB27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>16.600000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2601,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2678,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2933,196 +5382,699 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <f t="shared" ref="B35" si="69">B34/10</f>
         <v>3.5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f t="shared" ref="C35" si="70">C34/10</f>
         <v>3.2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" ref="D35" si="71">D34/10</f>
         <v>4.3</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" ref="E35" si="72">E34/10</f>
         <v>3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" ref="F35" si="73">F34/10</f>
         <v>0.8</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f t="shared" ref="G35" si="74">G34/10</f>
         <v>0</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <f t="shared" ref="H35" si="75">H34/10</f>
         <v>4.3</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <f t="shared" ref="I35" si="76">I34/10</f>
         <v>3.9</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <f t="shared" ref="J35" si="77">J34/10</f>
         <v>4.7</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <f t="shared" ref="K35" si="78">K34/10</f>
         <v>2.8</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <f t="shared" ref="L35" si="79">L34/10</f>
         <v>0.8</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <f t="shared" ref="M35" si="80">M34/10</f>
         <v>0.1</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <f t="shared" ref="N35" si="81">N34/10</f>
         <v>3.6</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <f t="shared" ref="O35" si="82">O34/10</f>
         <v>3.1</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <f t="shared" ref="P35" si="83">P34/10</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <f t="shared" ref="Q35" si="84">Q34/10</f>
         <v>0.2</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="1">
         <f t="shared" ref="R35" si="85">R34/10</f>
         <v>0.3</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <f t="shared" ref="S35" si="86">S34/10</f>
         <v>0.3</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1">
         <f>T34/10</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="1">
         <f t="shared" ref="U35" si="87">U34/10</f>
         <v>4.2</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="1">
         <f t="shared" ref="V35" si="88">V34/10</f>
         <v>1</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="1">
         <f t="shared" ref="W35" si="89">W34/10</f>
         <v>0.2</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="1">
         <f t="shared" ref="X35:Y35" si="90">X34/10</f>
         <v>0.3</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="1">
         <f t="shared" si="90"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" ref="B36" si="91">SUM(B34:G34)</f>
         <v>148</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
         <f t="shared" ref="H36" si="92">SUM(H34:M34)</f>
         <v>166</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
         <f t="shared" ref="N36" si="93">SUM(N34:S34)</f>
         <v>85</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2">
         <f t="shared" ref="T36" si="94">SUM(T34:Y34)</f>
         <v>101</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" ref="B37" si="95">B36/10</f>
         <v>14.8</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
         <f t="shared" ref="H37" si="96">H36/10</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
         <f t="shared" ref="N37" si="97">N36/10</f>
         <v>8.5</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2">
         <f t="shared" ref="T37" si="98">T36/10</f>
         <v>10.1</v>
       </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="K47" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="R47" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="S47" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U47" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="V47" s="1">
+        <v>5</v>
+      </c>
+      <c r="W47" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="X47" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="L58" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="O58" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="N59" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="O59" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L60" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="N60" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O60" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="L61" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="M61" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="1">
+        <v>5</v>
+      </c>
+      <c r="L62" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="M62" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="N37:S37"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
+  <mergeCells count="35">
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:Z45"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AE15"/>
     <mergeCell ref="Z16:AE16"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -3133,22 +6085,18 @@
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="N21:Y21"/>
     <mergeCell ref="N22:S22"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AE15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daten_Fehler.xlsx
+++ b/Daten_Fehler.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\le\SynologyDrive\Gymnasium\Maturarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F3E83-B8B2-43EC-8EEC-5BF6BDB6DA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D2406-6FCA-4E46-A816-63113B0B27E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
+    <sheet name="Diagramm2" sheetId="3" r:id="rId2"/>
+    <sheet name="Diagramm3" sheetId="5" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
   <si>
     <t>RGB</t>
   </si>
@@ -121,6 +124,15 @@
   </si>
   <si>
     <t>dw</t>
+  </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>mit Rausfiltern</t>
+  </si>
+  <si>
+    <t>ohne Rausfiltern</t>
   </si>
 </sst>
 </file>
@@ -220,8 +232,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Schnitt Farben</a:t>
+              <a:t>durchschnittliche</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> Fehler nach Farben</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -340,7 +357,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+              <c16:uniqueId val="{00000000-B839-42D2-BCD9-ABA2C142936E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -423,7 +440,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+              <c16:uniqueId val="{00000001-B839-42D2-BCD9-ABA2C142936E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -506,7 +523,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+              <c16:uniqueId val="{00000002-B839-42D2-BCD9-ABA2C142936E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -589,7 +606,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+              <c16:uniqueId val="{00000003-B839-42D2-BCD9-ABA2C142936E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -672,7 +689,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4944-4DA8-B3B5-D1FFA2A0D73D}"/>
+              <c16:uniqueId val="{00000004-B839-42D2-BCD9-ABA2C142936E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,11 +943,6 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -969,7 +981,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Fehler Schnitt</a:t>
+              <a:t>Fehler nach Methode</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1034,6 +1046,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$AC$23</c:f>
@@ -1048,7 +1118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A292-4CD4-B8F7-293241FD247A}"/>
+              <c16:uniqueId val="{00000000-1FE1-4549-92F8-BEFB79696F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,6 +1146,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$AC$24</c:f>
@@ -1090,7 +1218,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A292-4CD4-B8F7-293241FD247A}"/>
+              <c16:uniqueId val="{00000001-1FE1-4549-92F8-BEFB79696F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,6 +1246,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$AC$25</c:f>
@@ -1132,7 +1318,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A292-4CD4-B8F7-293241FD247A}"/>
+              <c16:uniqueId val="{00000002-1FE1-4549-92F8-BEFB79696F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,6 +1346,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$AC$26</c:f>
@@ -1174,7 +1418,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A292-4CD4-B8F7-293241FD247A}"/>
+              <c16:uniqueId val="{00000003-1FE1-4549-92F8-BEFB79696F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,6 +1446,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$AC$27</c:f>
@@ -1216,13 +1518,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A292-4CD4-B8F7-293241FD247A}"/>
+              <c16:uniqueId val="{00000004-1FE1-4549-92F8-BEFB79696F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1430,11 +1733,623 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>durchschnittliche Fehler SV-Filter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$W$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ohne Rausfiltern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$X$60:$AD$60</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$X$61:$AD$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C0E-44DB-A81C-169DD385EA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$W$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mit Rausfiltern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$X$60:$AD$60</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$X$62:$AD$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C0E-44DB-A81C-169DD385EA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588556752"/>
+        <c:axId val="665106904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588556752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665106904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665106904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Fehler</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588556752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -1518,6 +2433,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2524,31 +3479,562 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F380BFB-56B4-4A93-82DE-0F02F40AE35A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1E71FD4-7C09-45C1-99D7-E9ADC5BD537C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3AA143DA-DF8E-4BA3-B113-09B4E565C1AA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8658757" cy="6210520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEC8320-5162-45DF-88C0-951D7C21A97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9853E1C9-CA46-498A-9418-AB275098FB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2561,30 +4047,27 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8658757" cy="6210520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Diagramm 12">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170C75BB-1650-4A74-B523-5C0FCEC4B49C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AE0B2B-F41C-439B-A9C8-19E50BF1FFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2592,12 +4075,45 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297961" cy="5995251"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3E1F8-EC57-48E2-B9ED-8801980AAC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2900,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEFB4C4-E56D-49A1-B99A-2120733C73FE}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="Y69" sqref="Y69"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="W60" sqref="W60:AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5954,6 +7470,27 @@
       <c r="O60" s="1">
         <v>4.7</v>
       </c>
+      <c r="X60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.35">
       <c r="J61" t="s">
@@ -5974,6 +7511,30 @@
       <c r="O61" s="1">
         <v>2.8</v>
       </c>
+      <c r="W61" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.35">
       <c r="J62" t="s">
@@ -5993,6 +7554,30 @@
       </c>
       <c r="O62" s="1">
         <v>0.8</v>
+      </c>
+      <c r="W62" t="s">
+        <v>31</v>
+      </c>
+      <c r="X62">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y62">
+        <v>4.2</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>0.2</v>
+      </c>
+      <c r="AB62">
+        <v>0.3</v>
+      </c>
+      <c r="AC62">
+        <v>0.3</v>
+      </c>
+      <c r="AD62">
+        <v>10.1</v>
       </c>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.35">
@@ -6059,22 +7644,9 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="V45:Z45"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AE15"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
     <mergeCell ref="Z16:AE16"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -6091,12 +7663,24 @@
     <mergeCell ref="T16:Y16"/>
     <mergeCell ref="T22:Y22"/>
     <mergeCell ref="N36:S36"/>
-    <mergeCell ref="N37:S37"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AE15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:Z45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daten_Fehler.xlsx
+++ b/Daten_Fehler.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\le\SynologyDrive\Gymnasium\Maturarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D2406-6FCA-4E46-A816-63113B0B27E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F937A-3EEC-408B-8DD2-E9DD641C4038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Diagramm2" sheetId="3" r:id="rId2"/>
     <sheet name="Diagramm3" sheetId="5" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Diagramm4" sheetId="6" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
   <si>
     <t>RGB</t>
   </si>
@@ -133,6 +134,18 @@
   </si>
   <si>
     <t>ohne Rausfiltern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methode 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">und 2 ab </t>
+  </si>
+  <si>
+    <t>jetzt</t>
+  </si>
+  <si>
+    <t>vertauscht</t>
   </si>
 </sst>
 </file>
@@ -2353,6 +2366,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Felder korrekt verteilt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$R$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Methode 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$S$71:$Y$71</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$72:$Y$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C265-4BAB-A652-8B47EBF18A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$R$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Methode 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$S$71:$Y$71</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>orange</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>weiss</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gelb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>grün</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>blau</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$73:$Y$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C265-4BAB-A652-8B47EBF18A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="611100312"/>
+        <c:axId val="611102280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="611100312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611102280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611102280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Fehler</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611100312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2473,6 +3110,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3480,6 +4157,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4010,6 +5190,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3AA143DA-DF8E-4BA3-B113-09B4E565C1AA}">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CC407BB1-A688-4E06-BA9A-89285558D1DB}">
+  <sheetPr/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4022,7 +5214,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658757" cy="6210520"/>
+    <xdr:ext cx="8658757" cy="6221532"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -4055,7 +5247,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658757" cy="6210520"/>
+    <xdr:ext cx="8658757" cy="6221532"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -4088,13 +5280,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297961" cy="6009441"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3E1F8-EC57-48E2-B9ED-8801980AAC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9297961" cy="5995251"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD3E1F8-EC57-48E2-B9ED-8801980AAC84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDFB3BD-2F2F-4D87-BD69-C4EE67F48403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,10 +5639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEFB4C4-E56D-49A1-B99A-2120733C73FE}">
-  <dimension ref="A1:AK69"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60:AD62"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71:Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7632,7 +8857,7 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:25" x14ac:dyDescent="0.35">
       <c r="E69" s="1" t="s">
         <v>29</v>
       </c>
@@ -7642,8 +8867,118 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
+    <row r="71" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="S71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" t="s">
+        <v>18</v>
+      </c>
+      <c r="U71" t="s">
+        <v>19</v>
+      </c>
+      <c r="V71" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" t="s">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T72">
+        <v>4.2</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0.2</v>
+      </c>
+      <c r="W72">
+        <v>0.3</v>
+      </c>
+      <c r="X72">
+        <v>0.3</v>
+      </c>
+      <c r="Y72">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="73" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73">
+        <v>3.6</v>
+      </c>
+      <c r="T73">
+        <v>3.1</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>0.2</v>
+      </c>
+      <c r="W73">
+        <v>0.3</v>
+      </c>
+      <c r="X73">
+        <v>0.3</v>
+      </c>
+      <c r="Y73">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="74" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="5:25" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:Z45"/>
+    <mergeCell ref="Z15:AE15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:Y15"/>
     <mergeCell ref="N37:S37"/>
     <mergeCell ref="T36:Y36"/>
     <mergeCell ref="T37:Y37"/>
@@ -7660,25 +8995,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AE15"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="V45:Z45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Daten_Fehler.xlsx
+++ b/Daten_Fehler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\le\SynologyDrive\Gymnasium\Maturarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F937A-3EEC-408B-8DD2-E9DD641C4038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F536A4E8-5840-4CE6-803C-D79B3E0B55A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{DA4DD5A2-3FA2-4165-805E-036A03FD265F}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -231,12 +231,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -244,14 +241,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>durchschnittliche</a:t>
+              <a:rPr lang="de-CH" b="0"/>
+              <a:t>Durchschnittliche Fehler nach Farben</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-CH" baseline="0"/>
-              <a:t> Fehler nach Farben</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -268,12 +260,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -306,9 +295,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -389,9 +401,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -472,9 +507,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,9 +613,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,9 +719,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,8 +818,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="628572176"/>
         <c:axId val="618511048"/>
       </c:barChart>
@@ -734,7 +838,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -748,12 +852,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -781,7 +882,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -798,12 +899,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -811,7 +909,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" b="0"/>
                   <a:t>Fehlerzahl</a:t>
                 </a:r>
               </a:p>
@@ -830,12 +928,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -862,12 +957,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -904,12 +996,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -937,7 +1026,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -951,7 +1040,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -980,12 +1069,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -993,12 +1079,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>Fehler nach Methode</a:t>
+              <a:rPr lang="de-CH" b="0"/>
+              <a:t>Fehler nach Farbraum</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35527836154773718"/>
+          <c:y val="1.2247787200965936E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1012,12 +1106,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1050,9 +1141,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,18 +1182,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1102,14 +1211,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1150,9 +1258,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,18 +1299,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1202,14 +1328,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1250,9 +1375,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,18 +1416,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1302,14 +1445,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1350,9 +1492,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,18 +1533,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1402,14 +1562,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1450,9 +1609,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1468,18 +1650,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1502,14 +1679,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1544,8 +1720,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="626733240"/>
         <c:axId val="626735864"/>
       </c:barChart>
@@ -1554,12 +1730,42 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="626735864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1578,7 +1784,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1595,12 +1801,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1608,7 +1811,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" b="0"/>
                   <a:t>Fehler</a:t>
                 </a:r>
               </a:p>
@@ -1627,12 +1830,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1644,7 +1844,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1659,12 +1859,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1701,12 +1898,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1727,7 +1921,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1741,7 +1935,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -1770,12 +1964,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1783,8 +1974,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>durchschnittliche Fehler SV-Filter</a:t>
+              <a:rPr lang="de-CH" b="0"/>
+              <a:t>Durchschnittliche Fehler SV-Filter</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1802,12 +1993,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1840,9 +2028,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1858,18 +2069,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1892,14 +2098,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1987,9 +2192,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2005,18 +2233,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2039,14 +2262,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2128,8 +2350,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="588556752"/>
         <c:axId val="665106904"/>
       </c:barChart>
@@ -2148,7 +2370,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2162,12 +2384,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2195,7 +2414,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2212,12 +2431,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2225,7 +2441,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" b="0"/>
                   <a:t>Fehler</a:t>
                 </a:r>
               </a:p>
@@ -2244,12 +2460,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2276,12 +2489,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2318,12 +2528,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2344,7 +2551,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2358,7 +2565,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -2387,12 +2594,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2400,7 +2604,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
+              <a:rPr lang="de-CH" b="0"/>
               <a:t>Felder korrekt verteilt</a:t>
             </a:r>
           </a:p>
@@ -2419,12 +2623,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2437,7 +2638,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3996008372158154E-2"/>
+          <c:y val="6.9930464414244192E-2"/>
+          <c:w val="0.92327220989634184"/>
+          <c:h val="0.80072223023738809"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2457,9 +2668,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2475,18 +2709,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2509,14 +2738,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2604,9 +2832,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2622,18 +2873,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2656,14 +2902,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2745,8 +2990,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="611100312"/>
         <c:axId val="611102280"/>
       </c:barChart>
@@ -2765,7 +3010,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2775,16 +3020,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2812,7 +3054,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2829,12 +3071,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2842,7 +3081,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" b="0"/>
                   <a:t>Fehler</a:t>
                 </a:r>
               </a:p>
@@ -2861,12 +3100,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2893,12 +3129,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2935,12 +3168,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2968,7 +3198,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2982,7 +3212,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -3151,33 +3381,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3192,7 +3416,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3200,7 +3424,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3208,17 +3432,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -3227,9 +3448,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3252,35 +3472,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3289,33 +3509,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3331,21 +3550,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3379,17 +3593,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3398,14 +3612,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3417,26 +3631,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3450,96 +3658,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3547,17 +3758,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3566,12 +3777,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3580,14 +3788,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3596,10 +3804,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3608,7 +3813,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3629,10 +3834,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -3641,46 +3843,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3695,7 +3885,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3703,7 +3893,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3711,17 +3901,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -3730,9 +3917,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3755,35 +3941,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3792,33 +3978,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3834,21 +4019,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3882,17 +4062,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3901,14 +4081,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3920,26 +4100,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3953,96 +4127,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4050,17 +4227,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4069,12 +4246,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4083,14 +4257,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4099,10 +4273,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -4111,7 +4282,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4132,10 +4303,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4144,46 +4312,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4198,7 +4354,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4206,7 +4362,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4214,17 +4370,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4233,9 +4386,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4258,35 +4410,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4295,33 +4447,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4337,21 +4488,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4385,17 +4531,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4404,14 +4550,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4423,26 +4569,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4456,96 +4596,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4553,17 +4696,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4572,12 +4715,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4586,14 +4726,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4602,10 +4742,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -4614,7 +4751,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4635,10 +4772,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4647,46 +4781,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4701,7 +4823,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4709,7 +4831,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4717,17 +4839,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4736,9 +4855,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4761,35 +4879,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4798,33 +4916,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4840,21 +4957,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4888,17 +5000,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4907,14 +5019,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4926,26 +5038,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4959,96 +5065,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5056,17 +5165,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5075,12 +5184,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5089,14 +5195,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5105,10 +5211,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5117,7 +5220,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5138,10 +5241,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5150,14 +5250,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5178,7 +5272,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1E71FD4-7C09-45C1-99D7-E9ADC5BD537C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5202,7 +5296,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CC407BB1-A688-4E06-BA9A-89285558D1DB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5214,7 +5308,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658757" cy="6221532"/>
+    <xdr:ext cx="8658757" cy="6210520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -5247,7 +5341,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658757" cy="6221532"/>
+    <xdr:ext cx="8658757" cy="6210520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -5280,7 +5374,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9297961" cy="6009441"/>
+    <xdr:ext cx="9297961" cy="5995251"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -8960,25 +9054,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA45:AE45"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="V45:Z45"/>
-    <mergeCell ref="Z15:AE15"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:Y15"/>
     <mergeCell ref="N37:S37"/>
     <mergeCell ref="T36:Y36"/>
     <mergeCell ref="T37:Y37"/>
@@ -8995,6 +9070,25 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AE15"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AA45:AE45"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:Z45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
